--- a/biology/Botanique/Bikkia_tetrandra/Bikkia_tetrandra.xlsx
+++ b/biology/Botanique/Bikkia_tetrandra/Bikkia_tetrandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bikkia tetrandra est une espèce de plantes de la famille des Rubiaceae.
 </t>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aspect général
-Cette espèce se présente comme un arbrisseau buissonnant[1].
-Feuilles
-Fleurs
-Les fleurs sont tubulaires. Epanouies, elles se présentent comme un carré.
-Fruits</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente comme un arbrisseau buissonnant.
+</t>
         </is>
       </c>
     </row>
@@ -543,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est présente en Nouvelle-Guinée, au Vanuatu, en Nouvelle-Calédonie et en Micronésie.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont tubulaires. Epanouies, elles se présentent comme un carré.
 </t>
         </is>
       </c>
@@ -574,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Usages</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses tiges s'enflamment facilement et peuvent être utilisées pour fabriquer des torches ou des bougies[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Nouvelle-Guinée, au Vanuatu, en Nouvelle-Calédonie et en Micronésie.
 </t>
         </is>
       </c>
@@ -605,13 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est aussi désignée sous le nom de Bikkia carré en raison de la forme insolite de sa fleur[1].
-Son usage en tant que torche lui valent également le nom vernaculaire anglais de Torchwood[3].
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses tiges s'enflamment facilement et peuvent être utilisées pour fabriquer des torches ou des bougies.
 </t>
         </is>
       </c>
@@ -637,12 +660,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est aussi désignée sous le nom de Bikkia carré en raison de la forme insolite de sa fleur.
+Son usage en tant que torche lui valent également le nom vernaculaire anglais de Torchwood.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bikkia_tetrandra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bikkia_tetrandra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bikkia tetrandra a pour synonymes[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bikkia tetrandra a pour synonymes :
 Bikkia australis DC.
 Bikkia comptonii S.Moore
 Bikkia forsteriana Brongn.
